--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2121.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2121.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.713493406716935</v>
+        <v>0.8527436852455139</v>
       </c>
       <c r="B1">
-        <v>1.935978333013585</v>
+        <v>2.850529432296753</v>
       </c>
       <c r="C1">
-        <v>1.381602424657216</v>
+        <v>3.158830642700195</v>
       </c>
       <c r="D1">
-        <v>1.25399556975922</v>
+        <v>1.784195184707642</v>
       </c>
       <c r="E1">
-        <v>1.281518372279237</v>
+        <v>1.368252754211426</v>
       </c>
     </row>
   </sheetData>
